--- a/bin/x64/Release/Temp/Preproc.xlsx
+++ b/bin/x64/Release/Temp/Preproc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Var1</t>
   </si>
@@ -32,7 +32,19 @@
     <t>Var6</t>
   </si>
   <si>
-    <t>BG.tif</t>
+    <t>P:\DiplomRabota\Test_1</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P:\DiplomRabota\Test_2</t>
   </si>
   <si>
     <t>Subtraction_picture</t>
@@ -41,7 +53,7 @@
     <t>Without_aberration</t>
   </si>
   <si>
-    <t>Crop</t>
+    <t>Crop1</t>
   </si>
   <si>
     <t>Masked</t>
@@ -118,32 +130,62 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
